--- a/solitaire.xlsx
+++ b/solitaire.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
   <si>
     <t>From</t>
   </si>
@@ -32,50 +34,399 @@
     <t>To</t>
   </si>
   <si>
-    <t>Seq</t>
-  </si>
-  <si>
     <t>Over</t>
   </si>
   <si>
-    <t>set up board</t>
-  </si>
-  <si>
-    <t>set up remaining</t>
-  </si>
-  <si>
-    <t>while remaining &gt;1</t>
-  </si>
-  <si>
-    <t>write into history</t>
-  </si>
-  <si>
-    <t>make move</t>
-  </si>
-  <si>
-    <t>find next available move</t>
-  </si>
-  <si>
-    <t>decrement remaining</t>
-  </si>
-  <si>
-    <t>if it's the 'end' move</t>
-  </si>
-  <si>
-    <t>undo the last move</t>
-  </si>
-  <si>
-    <t>increment remaining</t>
+    <t>Cat-No</t>
+  </si>
+  <si>
+    <t>Same as to the left but decremented by one to better fit in with python's start at zero approach</t>
+  </si>
+  <si>
+    <t>[0,2,1]</t>
+  </si>
+  <si>
+    <t>[0,10,4]</t>
+  </si>
+  <si>
+    <t>[1,11,5]</t>
+  </si>
+  <si>
+    <t>[2,0,1]</t>
+  </si>
+  <si>
+    <t>[2,12,6]</t>
+  </si>
+  <si>
+    <t>[3,16,9]</t>
+  </si>
+  <si>
+    <t>[3,5,4]</t>
+  </si>
+  <si>
+    <t>[4,17,10]</t>
+  </si>
+  <si>
+    <t>[4,6,5]</t>
+  </si>
+  <si>
+    <t>[5,3,4]</t>
+  </si>
+  <si>
+    <t>[5,18,11]</t>
+  </si>
+  <si>
+    <t>[5,7,6]</t>
+  </si>
+  <si>
+    <t>[6,4,5]</t>
+  </si>
+  <si>
+    <t>[6,19,12]</t>
+  </si>
+  <si>
+    <t>[7,5,6]</t>
+  </si>
+  <si>
+    <t>[7,20,13]</t>
+  </si>
+  <si>
+    <t>[8,22,15]</t>
+  </si>
+  <si>
+    <t>[8,10,9]</t>
+  </si>
+  <si>
+    <t>[9,23,16]</t>
+  </si>
+  <si>
+    <t>[9,11,10]</t>
+  </si>
+  <si>
+    <t>[10,8,9]</t>
+  </si>
+  <si>
+    <t>[10,24,17]</t>
+  </si>
+  <si>
+    <t>[10,12,11]</t>
+  </si>
+  <si>
+    <t>[10,0,4]</t>
+  </si>
+  <si>
+    <t>[11,9,10]</t>
+  </si>
+  <si>
+    <t>[11,25,18]</t>
+  </si>
+  <si>
+    <t>[11,13,12]</t>
+  </si>
+  <si>
+    <t>[11,1,5]</t>
+  </si>
+  <si>
+    <t>[12,10,11]</t>
+  </si>
+  <si>
+    <t>[12,26,19]</t>
+  </si>
+  <si>
+    <t>[12,14,13]</t>
+  </si>
+  <si>
+    <t>[12,2,6]</t>
+  </si>
+  <si>
+    <t>[13,11,12]</t>
+  </si>
+  <si>
+    <t>[13,27,20]</t>
+  </si>
+  <si>
+    <t>[14,12,13]</t>
+  </si>
+  <si>
+    <t>[14,28,21]</t>
+  </si>
+  <si>
+    <t>[15,17,16]</t>
+  </si>
+  <si>
+    <t>[16,29,23]</t>
+  </si>
+  <si>
+    <t>[16,18,17]</t>
+  </si>
+  <si>
+    <t>[16,3,9]</t>
+  </si>
+  <si>
+    <t>[17,15,16]</t>
+  </si>
+  <si>
+    <t>[17,30,24]</t>
+  </si>
+  <si>
+    <t>[17,19,18]</t>
+  </si>
+  <si>
+    <t>[17,4,10]</t>
+  </si>
+  <si>
+    <t>[18,16,17]</t>
+  </si>
+  <si>
+    <t>[18,31,25]</t>
+  </si>
+  <si>
+    <t>[18,20,19]</t>
+  </si>
+  <si>
+    <t>[18,5,11]</t>
+  </si>
+  <si>
+    <t>[19,17,18]</t>
+  </si>
+  <si>
+    <t>[19,32,26]</t>
+  </si>
+  <si>
+    <t>[19,21,20]</t>
+  </si>
+  <si>
+    <t>[19,6,12]</t>
+  </si>
+  <si>
+    <t>[20,18,19]</t>
+  </si>
+  <si>
+    <t>[20,33,27]</t>
+  </si>
+  <si>
+    <t>[20,7,13]</t>
+  </si>
+  <si>
+    <t>[21,19,20]</t>
+  </si>
+  <si>
+    <t>[22,24,23]</t>
+  </si>
+  <si>
+    <t>[22,8,15]</t>
+  </si>
+  <si>
+    <t>[23,25,24]</t>
+  </si>
+  <si>
+    <t>[23,9,16]</t>
+  </si>
+  <si>
+    <t>[24,22,23]</t>
+  </si>
+  <si>
+    <t>[24,34,30]</t>
+  </si>
+  <si>
+    <t>[24,26,25]</t>
+  </si>
+  <si>
+    <t>[24,10,17]</t>
+  </si>
+  <si>
+    <t>[25,23,24]</t>
+  </si>
+  <si>
+    <t>[25,35,31]</t>
+  </si>
+  <si>
+    <t>[25,27,26]</t>
+  </si>
+  <si>
+    <t>[25,11,18]</t>
+  </si>
+  <si>
+    <t>[26,24,25]</t>
+  </si>
+  <si>
+    <t>[26,36,32]</t>
+  </si>
+  <si>
+    <t>[26,28,27]</t>
+  </si>
+  <si>
+    <t>[26,12,19]</t>
+  </si>
+  <si>
+    <t>[27,25,26]</t>
+  </si>
+  <si>
+    <t>[27,13,20]</t>
+  </si>
+  <si>
+    <t>[28,26,27]</t>
+  </si>
+  <si>
+    <t>[28,14,21]</t>
+  </si>
+  <si>
+    <t>[29,31,30]</t>
+  </si>
+  <si>
+    <t>[29,16,23]</t>
+  </si>
+  <si>
+    <t>[30,32,31]</t>
+  </si>
+  <si>
+    <t>[30,17,24]</t>
+  </si>
+  <si>
+    <t>[31,29,30]</t>
+  </si>
+  <si>
+    <t>[31,33,32]</t>
+  </si>
+  <si>
+    <t>[31,18,25]</t>
+  </si>
+  <si>
+    <t>[32,19,26]</t>
+  </si>
+  <si>
+    <t>[33,31,32]</t>
+  </si>
+  <si>
+    <t>[33,20,27]</t>
+  </si>
+  <si>
+    <t>[34,36,35]</t>
+  </si>
+  <si>
+    <t>[34,24,30]</t>
+  </si>
+  <si>
+    <t>[35,25,31]</t>
+  </si>
+  <si>
+    <t>[36,34,35]</t>
+  </si>
+  <si>
+    <t>[36,26,32]</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>[32,30,31]</t>
+  </si>
+  <si>
+    <t>[0,2,1],[0,10,4],[1,11,5],[2,0,1],[2,12,6],[3,16,9],[3,5,4],[4,17,10],[4,6,5],[5,3,4],[5,18,11],[5,7,6],[6,4,5],[6,19,12],[7,5,6],[7,20,13],[8,22,15],[8,10,9],[9,23,16],[9,11,10],[10,8,9],[10,24,17],[10,12,11],[10,0,4],[11,9,10],[11,25,18],[11,13,12],[11,1,5],[12,10,11],[12,26,19],[12,14,13],[12,2,6],[13,11,12],[13,27,20],[14,12,13],[14,28,21],[15,17,16],[16,29,23],[16,18,17],[16,3,9],[17,15,16],[17,30,24],[17,19,18],[17,4,10],[18,16,17],[18,31,25],[18,20,19],[18,5,11],[19,17,18],[19,32,26],[19,21,20],[19,6,12],[20,18,19],[20,33,27],[20,7,13],[21,19,20],[22,24,23],[22,8,15],[23,25,24],[23,9,16],[24,22,23],[24,34,30],[24,26,25],[24,10,17],[25,23,24],[25,35,31],[25,27,26],[25,11,18],[26,24,25],[26,36,32],[26,28,27],[26,12,19],[27,25,26],[27,13,20],[28,26,27],[28,14,21],[29,31,30],[29,16,23],[30,32,31],[30,17,24],[31,29,30],[31,33,32],[31,18,25],[32,30,31],[32,19,26],[33,31,32],[33,20,27],[34,36,35],[34,24,30],[35,25,31],[36,34,35],[36,26,32]</t>
+  </si>
+  <si>
+    <t>12 red balls</t>
+  </si>
+  <si>
+    <t>8 blue balls</t>
+  </si>
+  <si>
+    <t>8 green balls</t>
+  </si>
+  <si>
+    <t>only yellow or red can take out green or blue</t>
+  </si>
+  <si>
+    <t>only green or blue can take out yellow or red</t>
+  </si>
+  <si>
+    <t>8 yellow balls</t>
+  </si>
+  <si>
+    <t>10, 6,   2, 14, 27, 19, 28, 34, 43, 1,   3, 36, 43, 1,  48, 43, 77, 64, 84, 59</t>
+  </si>
+  <si>
+    <t>Without fail checks it ran for about 16 hours to get past the sequence below:</t>
+  </si>
+  <si>
+    <t>Horz</t>
+  </si>
+  <si>
+    <t>Vert</t>
+  </si>
+  <si>
+    <t>TLBR</t>
+  </si>
+  <si>
+    <t>TRBL</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <t>11,12,16</t>
+  </si>
+  <si>
+    <t>1,2,5,6</t>
+  </si>
+  <si>
+    <t>With fail check 1 it took about 5.75 hours to get to the same point</t>
+  </si>
+  <si>
+    <t>10, 6,   2, 14, 27, 19, 28, 34, 43, 1,   3, 36, 43, 1,  48, 55, 86, 77, 40, 66</t>
+  </si>
+  <si>
+    <t>With fail check 1 it took about 26.25 hours to get to the sequence below:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,7 +440,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -97,12 +448,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:L119"/>
+  <dimension ref="B5:T121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:XFD111"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,7 +856,7 @@
     <col min="8" max="8" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>1</v>
       </c>
@@ -410,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>4</v>
       </c>
@@ -427,7 +884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>9</v>
       </c>
@@ -450,7 +907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>16</v>
       </c>
@@ -473,7 +930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>23</v>
       </c>
@@ -496,7 +953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>30</v>
       </c>
@@ -512,8 +969,11 @@
       <c r="G10">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D11">
         <v>35</v>
       </c>
@@ -524,7 +984,7 @@
         <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
         <v>0</v>
@@ -533,10 +993,22 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I12">
         <v>1</v>
       </c>
@@ -549,8 +1021,31 @@
       <c r="L12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <f>I12-1</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ref="O12:Q12" si="0">J12-1</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S12" t="str">
+        <f>CONCATENATE("[",O12,",",P12,",",Q12,"]")</f>
+        <v>[0,2,1]</v>
+      </c>
+      <c r="T12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I13">
         <v>2</v>
       </c>
@@ -563,8 +1058,31 @@
       <c r="L13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <f t="shared" ref="N13:N76" si="1">I13-1</f>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O76" si="2">J13-1</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P76" si="3">K13-1</f>
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q76" si="4">L13-1</f>
+        <v>4</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" ref="S13:S76" si="5">CONCATENATE("[",O13,",",P13,",",Q13,"]")</f>
+        <v>[0,10,4]</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I14">
         <v>3</v>
       </c>
@@ -577,8 +1095,31 @@
       <c r="L14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="5"/>
+        <v>[1,11,5]</v>
+      </c>
+      <c r="T14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I15">
         <v>4</v>
       </c>
@@ -591,8 +1132,31 @@
       <c r="L15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="5"/>
+        <v>[2,0,1]</v>
+      </c>
+      <c r="T15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D16">
         <v>1</v>
       </c>
@@ -614,8 +1178,31 @@
       <c r="L16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="5"/>
+        <v>[2,12,6]</v>
+      </c>
+      <c r="T16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>4</v>
       </c>
@@ -643,8 +1230,31 @@
       <c r="L17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="5"/>
+        <v>[3,16,9]</v>
+      </c>
+      <c r="T17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>9</v>
       </c>
@@ -678,8 +1288,31 @@
       <c r="L18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="5"/>
+        <v>[3,5,4]</v>
+      </c>
+      <c r="T18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>16</v>
       </c>
@@ -713,8 +1346,31 @@
       <c r="L19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="5"/>
+        <v>[4,17,10]</v>
+      </c>
+      <c r="T19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>23</v>
       </c>
@@ -748,8 +1404,31 @@
       <c r="L20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="5"/>
+        <v>[4,6,5]</v>
+      </c>
+      <c r="T20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>30</v>
       </c>
@@ -777,8 +1456,31 @@
       <c r="L21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="5"/>
+        <v>[5,3,4]</v>
+      </c>
+      <c r="T21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>35</v>
       </c>
@@ -800,8 +1502,31 @@
       <c r="L22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="5"/>
+        <v>[5,18,11]</v>
+      </c>
+      <c r="T22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I23">
         <v>12</v>
       </c>
@@ -814,8 +1539,31 @@
       <c r="L23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="5"/>
+        <v>[5,7,6]</v>
+      </c>
+      <c r="T23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I24">
         <v>13</v>
       </c>
@@ -828,8 +1576,31 @@
       <c r="L24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="5"/>
+        <v>[6,4,5]</v>
+      </c>
+      <c r="T24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I25">
         <v>14</v>
       </c>
@@ -842,8 +1613,31 @@
       <c r="L25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="5"/>
+        <v>[6,19,12]</v>
+      </c>
+      <c r="T25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I26">
         <v>15</v>
       </c>
@@ -856,8 +1650,31 @@
       <c r="L26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="5"/>
+        <v>[7,5,6]</v>
+      </c>
+      <c r="T26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>1</v>
       </c>
@@ -879,8 +1696,31 @@
       <c r="L27">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="5"/>
+        <v>[7,20,13]</v>
+      </c>
+      <c r="T27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>4</v>
       </c>
@@ -908,8 +1748,31 @@
       <c r="L28">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="5"/>
+        <v>[8,22,15]</v>
+      </c>
+      <c r="T28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>9</v>
       </c>
@@ -943,8 +1806,31 @@
       <c r="L29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="5"/>
+        <v>[8,10,9]</v>
+      </c>
+      <c r="T29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>16</v>
       </c>
@@ -978,8 +1864,31 @@
       <c r="L30">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="5"/>
+        <v>[9,23,16]</v>
+      </c>
+      <c r="T30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>23</v>
       </c>
@@ -1013,8 +1922,31 @@
       <c r="L31">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="5"/>
+        <v>[9,11,10]</v>
+      </c>
+      <c r="T31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>30</v>
       </c>
@@ -1042,8 +1974,31 @@
       <c r="L32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="5"/>
+        <v>[10,8,9]</v>
+      </c>
+      <c r="T32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>35</v>
       </c>
@@ -1065,8 +2020,31 @@
       <c r="L33">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="5"/>
+        <v>[10,24,17]</v>
+      </c>
+      <c r="T33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I34">
         <v>23</v>
       </c>
@@ -1079,8 +2057,31 @@
       <c r="L34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="5"/>
+        <v>[10,12,11]</v>
+      </c>
+      <c r="T34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I35">
         <v>24</v>
       </c>
@@ -1093,8 +2094,31 @@
       <c r="L35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="5"/>
+        <v>[10,0,4]</v>
+      </c>
+      <c r="T35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I36">
         <v>25</v>
       </c>
@@ -1107,8 +2131,31 @@
       <c r="L36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="5"/>
+        <v>[11,9,10]</v>
+      </c>
+      <c r="T36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I37">
         <v>26</v>
       </c>
@@ -1121,8 +2168,31 @@
       <c r="L37">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="5"/>
+        <v>[11,25,18]</v>
+      </c>
+      <c r="T37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D38">
         <v>1</v>
       </c>
@@ -1144,8 +2214,31 @@
       <c r="L38">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="5"/>
+        <v>[11,13,12]</v>
+      </c>
+      <c r="T38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>4</v>
       </c>
@@ -1173,8 +2266,31 @@
       <c r="L39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="5"/>
+        <v>[11,1,5]</v>
+      </c>
+      <c r="T39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>9</v>
       </c>
@@ -1208,8 +2324,31 @@
       <c r="L40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="5"/>
+        <v>[12,10,11]</v>
+      </c>
+      <c r="T40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>16</v>
       </c>
@@ -1243,8 +2382,31 @@
       <c r="L41">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="5"/>
+        <v>[12,26,19]</v>
+      </c>
+      <c r="T41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>23</v>
       </c>
@@ -1278,8 +2440,31 @@
       <c r="L42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="5"/>
+        <v>[12,14,13]</v>
+      </c>
+      <c r="T42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>30</v>
       </c>
@@ -1307,8 +2492,31 @@
       <c r="L43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="5"/>
+        <v>[12,2,6]</v>
+      </c>
+      <c r="T43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>35</v>
       </c>
@@ -1330,8 +2538,31 @@
       <c r="L44">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="5"/>
+        <v>[13,11,12]</v>
+      </c>
+      <c r="T44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I45">
         <v>34</v>
       </c>
@@ -1344,8 +2575,31 @@
       <c r="L45">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="5"/>
+        <v>[13,27,20]</v>
+      </c>
+      <c r="T45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I46">
         <v>35</v>
       </c>
@@ -1358,8 +2612,31 @@
       <c r="L46">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="5"/>
+        <v>[14,12,13]</v>
+      </c>
+      <c r="T46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I47">
         <v>36</v>
       </c>
@@ -1372,8 +2649,31 @@
       <c r="L47">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="5"/>
+        <v>[14,28,21]</v>
+      </c>
+      <c r="T47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I48">
         <v>37</v>
       </c>
@@ -1386,8 +2686,31 @@
       <c r="L48">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="5"/>
+        <v>[15,17,16]</v>
+      </c>
+      <c r="T48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>1</v>
       </c>
@@ -1409,8 +2732,31 @@
       <c r="L49">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="5"/>
+        <v>[16,29,23]</v>
+      </c>
+      <c r="T49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>4</v>
       </c>
@@ -1438,8 +2784,31 @@
       <c r="L50">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="5"/>
+        <v>[16,18,17]</v>
+      </c>
+      <c r="T50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>9</v>
       </c>
@@ -1473,8 +2842,31 @@
       <c r="L51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="5"/>
+        <v>[16,3,9]</v>
+      </c>
+      <c r="T51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>16</v>
       </c>
@@ -1508,8 +2900,31 @@
       <c r="L52">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="5"/>
+        <v>[17,15,16]</v>
+      </c>
+      <c r="T52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>23</v>
       </c>
@@ -1543,8 +2958,31 @@
       <c r="L53">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="5"/>
+        <v>[17,30,24]</v>
+      </c>
+      <c r="T53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>30</v>
       </c>
@@ -1572,8 +3010,31 @@
       <c r="L54">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="5"/>
+        <v>[17,19,18]</v>
+      </c>
+      <c r="T54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>35</v>
       </c>
@@ -1595,8 +3056,31 @@
       <c r="L55">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="5"/>
+        <v>[17,4,10]</v>
+      </c>
+      <c r="T55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I56">
         <v>45</v>
       </c>
@@ -1609,8 +3093,31 @@
       <c r="L56">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="5"/>
+        <v>[18,16,17]</v>
+      </c>
+      <c r="T56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I57">
         <v>46</v>
       </c>
@@ -1623,8 +3130,31 @@
       <c r="L57">
         <v>26</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="5"/>
+        <v>[18,31,25]</v>
+      </c>
+      <c r="T57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I58">
         <v>47</v>
       </c>
@@ -1637,8 +3167,31 @@
       <c r="L58">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="5"/>
+        <v>[18,20,19]</v>
+      </c>
+      <c r="T58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I59">
         <v>48</v>
       </c>
@@ -1651,8 +3204,31 @@
       <c r="L59">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N59">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="5"/>
+        <v>[18,5,11]</v>
+      </c>
+      <c r="T59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>1</v>
       </c>
@@ -1674,8 +3250,31 @@
       <c r="L60">
         <v>19</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N60">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="5"/>
+        <v>[19,17,18]</v>
+      </c>
+      <c r="T60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>4</v>
       </c>
@@ -1703,8 +3302,31 @@
       <c r="L61">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N61">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="5"/>
+        <v>[19,32,26]</v>
+      </c>
+      <c r="T61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>9</v>
       </c>
@@ -1738,8 +3360,31 @@
       <c r="L62">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N62">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="5"/>
+        <v>[19,21,20]</v>
+      </c>
+      <c r="T62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>16</v>
       </c>
@@ -1773,8 +3418,31 @@
       <c r="L63">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N63">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="5"/>
+        <v>[19,6,12]</v>
+      </c>
+      <c r="T63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>23</v>
       </c>
@@ -1808,8 +3476,31 @@
       <c r="L64">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N64">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="5"/>
+        <v>[20,18,19]</v>
+      </c>
+      <c r="T64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>30</v>
       </c>
@@ -1837,8 +3528,31 @@
       <c r="L65">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N65">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="5"/>
+        <v>[20,33,27]</v>
+      </c>
+      <c r="T65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>35</v>
       </c>
@@ -1860,8 +3574,31 @@
       <c r="L66">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N66">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" si="5"/>
+        <v>[20,7,13]</v>
+      </c>
+      <c r="T66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I67">
         <v>56</v>
       </c>
@@ -1874,8 +3611,31 @@
       <c r="L67">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N67">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" si="5"/>
+        <v>[21,19,20]</v>
+      </c>
+      <c r="T67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I68">
         <v>57</v>
       </c>
@@ -1888,8 +3648,31 @@
       <c r="L68">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N68">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="5"/>
+        <v>[22,24,23]</v>
+      </c>
+      <c r="T68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I69">
         <v>58</v>
       </c>
@@ -1902,8 +3685,31 @@
       <c r="L69">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N69">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" si="5"/>
+        <v>[22,8,15]</v>
+      </c>
+      <c r="T69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I70">
         <v>59</v>
       </c>
@@ -1916,8 +3722,31 @@
       <c r="L70">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N70">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" si="5"/>
+        <v>[23,25,24]</v>
+      </c>
+      <c r="T70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>1</v>
       </c>
@@ -1939,8 +3768,31 @@
       <c r="L71">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N71">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" si="5"/>
+        <v>[23,9,16]</v>
+      </c>
+      <c r="T71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>4</v>
       </c>
@@ -1968,8 +3820,31 @@
       <c r="L72">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N72">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="5"/>
+        <v>[24,22,23]</v>
+      </c>
+      <c r="T72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>9</v>
       </c>
@@ -2003,8 +3878,31 @@
       <c r="L73">
         <v>31</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N73">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" si="5"/>
+        <v>[24,34,30]</v>
+      </c>
+      <c r="T73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>16</v>
       </c>
@@ -2038,8 +3936,31 @@
       <c r="L74">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N74">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="S74" t="str">
+        <f t="shared" si="5"/>
+        <v>[24,26,25]</v>
+      </c>
+      <c r="T74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>23</v>
       </c>
@@ -2073,8 +3994,31 @@
       <c r="L75">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N75">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="S75" t="str">
+        <f t="shared" si="5"/>
+        <v>[24,10,17]</v>
+      </c>
+      <c r="T75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>30</v>
       </c>
@@ -2102,8 +4046,31 @@
       <c r="L76">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N76">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="S76" t="str">
+        <f t="shared" si="5"/>
+        <v>[25,23,24]</v>
+      </c>
+      <c r="T76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>35</v>
       </c>
@@ -2125,8 +4092,31 @@
       <c r="L77">
         <v>32</v>
       </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N77">
+        <f t="shared" ref="N77:N103" si="6">I77-1</f>
+        <v>65</v>
+      </c>
+      <c r="O77">
+        <f t="shared" ref="O77:O103" si="7">J77-1</f>
+        <v>25</v>
+      </c>
+      <c r="P77">
+        <f t="shared" ref="P77:P103" si="8">K77-1</f>
+        <v>35</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" ref="Q77:Q103" si="9">L77-1</f>
+        <v>31</v>
+      </c>
+      <c r="S77" t="str">
+        <f t="shared" ref="S77:S103" si="10">CONCATENATE("[",O77,",",P77,",",Q77,"]")</f>
+        <v>[25,35,31]</v>
+      </c>
+      <c r="T77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I78">
         <v>67</v>
       </c>
@@ -2139,8 +4129,31 @@
       <c r="L78">
         <v>27</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N78">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="S78" t="str">
+        <f t="shared" si="10"/>
+        <v>[25,27,26]</v>
+      </c>
+      <c r="T78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I79">
         <v>68</v>
       </c>
@@ -2153,8 +4166,31 @@
       <c r="L79">
         <v>19</v>
       </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N79">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="S79" t="str">
+        <f t="shared" si="10"/>
+        <v>[25,11,18]</v>
+      </c>
+      <c r="T79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I80">
         <v>69</v>
       </c>
@@ -2167,8 +4203,31 @@
       <c r="L80">
         <v>26</v>
       </c>
-    </row>
-    <row r="81" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N80">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="S80" t="str">
+        <f t="shared" si="10"/>
+        <v>[26,24,25]</v>
+      </c>
+      <c r="T80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I81">
         <v>70</v>
       </c>
@@ -2181,8 +4240,40 @@
       <c r="L81">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N81">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="S81" t="str">
+        <f t="shared" si="10"/>
+        <v>[26,36,32]</v>
+      </c>
+      <c r="T81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
       <c r="I82">
         <v>71</v>
       </c>
@@ -2195,8 +4286,46 @@
       <c r="L82">
         <v>28</v>
       </c>
-    </row>
-    <row r="83" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N82">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="S82" t="str">
+        <f t="shared" si="10"/>
+        <v>[26,28,27]</v>
+      </c>
+      <c r="T82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83">
+        <v>8</v>
+      </c>
       <c r="I83">
         <v>72</v>
       </c>
@@ -2209,8 +4338,52 @@
       <c r="L83">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N83">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="10"/>
+        <v>[26,12,19]</v>
+      </c>
+      <c r="T83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>11</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>13</v>
+      </c>
+      <c r="G84">
+        <v>14</v>
+      </c>
+      <c r="H84">
+        <v>15</v>
+      </c>
       <c r="I84">
         <v>73</v>
       </c>
@@ -2223,8 +4396,52 @@
       <c r="L84">
         <v>27</v>
       </c>
-    </row>
-    <row r="85" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N84">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" si="10"/>
+        <v>[27,25,26]</v>
+      </c>
+      <c r="T84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>17</v>
+      </c>
+      <c r="D85">
+        <v>18</v>
+      </c>
+      <c r="E85">
+        <v>19</v>
+      </c>
+      <c r="F85">
+        <v>20</v>
+      </c>
+      <c r="G85">
+        <v>21</v>
+      </c>
+      <c r="H85">
+        <v>22</v>
+      </c>
       <c r="I85">
         <v>74</v>
       </c>
@@ -2237,8 +4454,52 @@
       <c r="L85">
         <v>21</v>
       </c>
-    </row>
-    <row r="86" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N85">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="S85" t="str">
+        <f t="shared" si="10"/>
+        <v>[27,13,20]</v>
+      </c>
+      <c r="T85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>23</v>
+      </c>
+      <c r="C86">
+        <v>24</v>
+      </c>
+      <c r="D86">
+        <v>25</v>
+      </c>
+      <c r="E86">
+        <v>26</v>
+      </c>
+      <c r="F86">
+        <v>27</v>
+      </c>
+      <c r="G86">
+        <v>28</v>
+      </c>
+      <c r="H86">
+        <v>29</v>
+      </c>
       <c r="I86">
         <v>75</v>
       </c>
@@ -2251,8 +4512,46 @@
       <c r="L86">
         <v>28</v>
       </c>
-    </row>
-    <row r="87" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N86">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="S86" t="str">
+        <f t="shared" si="10"/>
+        <v>[28,26,27]</v>
+      </c>
+      <c r="T86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>31</v>
+      </c>
+      <c r="E87">
+        <v>32</v>
+      </c>
+      <c r="F87">
+        <v>33</v>
+      </c>
+      <c r="G87">
+        <v>34</v>
+      </c>
       <c r="I87">
         <v>76</v>
       </c>
@@ -2265,8 +4564,40 @@
       <c r="L87">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N87">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" si="10"/>
+        <v>[28,14,21]</v>
+      </c>
+      <c r="T87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>35</v>
+      </c>
+      <c r="E88">
+        <v>36</v>
+      </c>
+      <c r="F88">
+        <v>37</v>
+      </c>
       <c r="I88">
         <v>77</v>
       </c>
@@ -2279,8 +4610,31 @@
       <c r="L88">
         <v>31</v>
       </c>
-    </row>
-    <row r="89" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N88">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" si="10"/>
+        <v>[29,31,30]</v>
+      </c>
+      <c r="T88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I89">
         <v>78</v>
       </c>
@@ -2293,8 +4647,31 @@
       <c r="L89">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N89">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="S89" t="str">
+        <f t="shared" si="10"/>
+        <v>[29,16,23]</v>
+      </c>
+      <c r="T89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I90">
         <v>79</v>
       </c>
@@ -2307,8 +4684,31 @@
       <c r="L90">
         <v>32</v>
       </c>
-    </row>
-    <row r="91" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N90">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="S90" t="str">
+        <f t="shared" si="10"/>
+        <v>[30,32,31]</v>
+      </c>
+      <c r="T90" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I91">
         <v>80</v>
       </c>
@@ -2321,8 +4721,31 @@
       <c r="L91">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N91">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="S91" t="str">
+        <f t="shared" si="10"/>
+        <v>[30,17,24]</v>
+      </c>
+      <c r="T91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I92">
         <v>81</v>
       </c>
@@ -2335,8 +4758,40 @@
       <c r="L92">
         <v>31</v>
       </c>
-    </row>
-    <row r="93" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N92">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="S92" t="str">
+        <f t="shared" si="10"/>
+        <v>[31,29,30]</v>
+      </c>
+      <c r="T92" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1">
+        <v>3</v>
+      </c>
       <c r="I93">
         <v>82</v>
       </c>
@@ -2349,8 +4804,46 @@
       <c r="L93">
         <v>33</v>
       </c>
-    </row>
-    <row r="94" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N93">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="S93" t="str">
+        <f t="shared" si="10"/>
+        <v>[31,33,32]</v>
+      </c>
+      <c r="T93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C94" s="5">
+        <v>4</v>
+      </c>
+      <c r="D94" s="2">
+        <v>5</v>
+      </c>
+      <c r="E94" s="5">
+        <v>6</v>
+      </c>
+      <c r="F94" s="2">
+        <v>7</v>
+      </c>
+      <c r="G94" s="5">
+        <v>8</v>
+      </c>
       <c r="I94">
         <v>83</v>
       </c>
@@ -2363,8 +4856,52 @@
       <c r="L94">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="N94">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="S94" t="str">
+        <f t="shared" si="10"/>
+        <v>[31,18,25]</v>
+      </c>
+      <c r="T94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B95" s="1">
+        <v>9</v>
+      </c>
+      <c r="C95" s="3">
+        <v>10</v>
+      </c>
+      <c r="D95" s="1">
+        <v>11</v>
+      </c>
+      <c r="E95" s="3">
+        <v>12</v>
+      </c>
+      <c r="F95" s="1">
+        <v>13</v>
+      </c>
+      <c r="G95" s="3">
+        <v>14</v>
+      </c>
+      <c r="H95" s="1">
+        <v>15</v>
+      </c>
       <c r="I95">
         <v>84</v>
       </c>
@@ -2375,10 +4912,54 @@
         <v>31</v>
       </c>
       <c r="L95">
+        <v>32</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="Q95">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="S95" t="str">
+        <f t="shared" si="10"/>
+        <v>[32,30,31]</v>
+      </c>
+      <c r="T95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B96" s="2">
+        <v>16</v>
+      </c>
+      <c r="C96" s="5">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2">
+        <v>18</v>
+      </c>
+      <c r="E96" s="4">
+        <v>19</v>
+      </c>
+      <c r="F96" s="2">
+        <v>20</v>
+      </c>
+      <c r="G96" s="5">
+        <v>21</v>
+      </c>
+      <c r="H96" s="2">
+        <v>22</v>
+      </c>
       <c r="I96">
         <v>85</v>
       </c>
@@ -2391,8 +4972,52 @@
       <c r="L96">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N96">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="S96" t="str">
+        <f t="shared" si="10"/>
+        <v>[32,19,26]</v>
+      </c>
+      <c r="T96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B97" s="1">
+        <v>23</v>
+      </c>
+      <c r="C97" s="3">
+        <v>24</v>
+      </c>
+      <c r="D97" s="1">
+        <v>25</v>
+      </c>
+      <c r="E97" s="3">
+        <v>26</v>
+      </c>
+      <c r="F97" s="1">
+        <v>27</v>
+      </c>
+      <c r="G97" s="3">
+        <v>28</v>
+      </c>
+      <c r="H97" s="1">
+        <v>29</v>
+      </c>
       <c r="I97">
         <v>86</v>
       </c>
@@ -2405,8 +5030,46 @@
       <c r="L97">
         <v>33</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N97">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="S97" t="str">
+        <f t="shared" si="10"/>
+        <v>[33,31,32]</v>
+      </c>
+      <c r="T97" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C98" s="5">
+        <v>30</v>
+      </c>
+      <c r="D98" s="2">
+        <v>31</v>
+      </c>
+      <c r="E98" s="5">
+        <v>32</v>
+      </c>
+      <c r="F98" s="2">
+        <v>33</v>
+      </c>
+      <c r="G98" s="5">
+        <v>34</v>
+      </c>
       <c r="I98">
         <v>87</v>
       </c>
@@ -2419,8 +5082,40 @@
       <c r="L98">
         <v>28</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N98">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="S98" t="str">
+        <f t="shared" si="10"/>
+        <v>[33,20,27]</v>
+      </c>
+      <c r="T98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D99" s="1">
+        <v>35</v>
+      </c>
+      <c r="E99" s="3">
+        <v>36</v>
+      </c>
+      <c r="F99" s="1">
+        <v>37</v>
+      </c>
       <c r="I99">
         <v>88</v>
       </c>
@@ -2433,8 +5128,31 @@
       <c r="L99">
         <v>36</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N99">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="S99" t="str">
+        <f t="shared" si="10"/>
+        <v>[34,36,35]</v>
+      </c>
+      <c r="T99" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.3">
       <c r="I100">
         <v>89</v>
       </c>
@@ -2447,8 +5165,34 @@
       <c r="L100">
         <v>31</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N100">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="S100" t="str">
+        <f t="shared" si="10"/>
+        <v>[34,24,30]</v>
+      </c>
+      <c r="T100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
       <c r="I101">
         <v>90</v>
       </c>
@@ -2461,8 +5205,34 @@
       <c r="L101">
         <v>32</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N101">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="S101" t="str">
+        <f t="shared" si="10"/>
+        <v>[35,25,31]</v>
+      </c>
+      <c r="T101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
       <c r="I102">
         <v>91</v>
       </c>
@@ -2475,8 +5245,34 @@
       <c r="L102">
         <v>36</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N102">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="S102" t="str">
+        <f t="shared" si="10"/>
+        <v>[36,34,35]</v>
+      </c>
+      <c r="T102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
       <c r="I103">
         <v>92</v>
       </c>
@@ -2489,55 +5285,950 @@
       <c r="L103">
         <v>33</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="N103">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="S103" t="str">
+        <f t="shared" si="10"/>
+        <v>[36,26,32]</v>
+      </c>
+      <c r="T103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115" s="6"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="8">
+        <f>D93-1</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="9">
+        <f>E93-1</f>
+        <v>1</v>
+      </c>
+      <c r="F115" s="8">
+        <f>F93-1</f>
+        <v>2</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B116" s="11"/>
+      <c r="C116" s="12">
+        <f>C94-1</f>
+        <v>3</v>
+      </c>
+      <c r="D116" s="13">
+        <f>D94-1</f>
+        <v>4</v>
+      </c>
+      <c r="E116" s="12">
+        <f>E94-1</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="F116" s="13">
+        <f>F94-1</f>
+        <v>6</v>
+      </c>
+      <c r="G116" s="12">
+        <f>G94-1</f>
+        <v>7</v>
+      </c>
+      <c r="H116" s="14"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117" s="15">
+        <f t="shared" ref="B117:H117" si="11">B95-1</f>
+        <v>8</v>
+      </c>
+      <c r="C117" s="16">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="D117" s="17">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="E117" s="16">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="F117" s="17">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="G117" s="16">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H117" s="18">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B118" s="19">
+        <f t="shared" ref="B118:H118" si="12">B96-1</f>
+        <v>15</v>
+      </c>
+      <c r="C118" s="12">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="D118" s="13">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="E118" s="20">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="F118" s="13">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="G118" s="12">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="H118" s="21">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B119" s="15">
+        <f t="shared" ref="B119:H119" si="13">B97-1</f>
+        <v>22</v>
+      </c>
+      <c r="C119" s="16">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="D119" s="17">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="E119" s="16">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="F119" s="17">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="G119" s="16">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="H119" s="18">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120" s="11"/>
+      <c r="C120" s="12">
+        <f>C98-1</f>
+        <v>29</v>
+      </c>
+      <c r="D120" s="13">
+        <f>D98-1</f>
+        <v>30</v>
+      </c>
+      <c r="E120" s="12">
+        <f>E98-1</f>
+        <v>31</v>
+      </c>
+      <c r="F120" s="13">
+        <f>F98-1</f>
+        <v>32</v>
+      </c>
+      <c r="G120" s="12">
+        <f>G98-1</f>
+        <v>33</v>
+      </c>
+      <c r="H120" s="14"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B121" s="22"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="24">
+        <f>D99-1</f>
+        <v>34</v>
+      </c>
+      <c r="E121" s="25">
+        <f>E99-1</f>
+        <v>35</v>
+      </c>
+      <c r="F121" s="24">
+        <f>F99-1</f>
+        <v>36</v>
+      </c>
+      <c r="G121" s="23"/>
+      <c r="H121" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:S38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>COMBIN(37,C1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D38" si="0">COMBIN(37,C2)</f>
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>666</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>7770</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>66044.999999999985</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
+      <c r="S5">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C115" t="s">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>435897</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P6">
         <v>13</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
+      <c r="Q6">
+        <v>14</v>
+      </c>
+      <c r="R6">
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2324784</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>10295471.999999998</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>38608020</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>124403619.99999999</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C11">
         <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>348330135.99999994</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>854992152.00000024</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1852482995.9999998</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3562467299.9999986</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>6107086800.0000048</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>9364199760</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>12875774670.000002</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>15905368710</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>17672631899.999992</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>17672631899.999992</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>15905368710</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>12875774670.000002</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>9364199760</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>6107086800.0000048</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>3562467299.9999986</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1852482995.9999998</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>854992152.00000024</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>348330135.99999994</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>124403619.99999999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>38608020</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>10295471.999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2324784</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>435897</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>66044.999999999985</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
